--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_362__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_362__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5417,19 +5417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>88.71315002441406</c:v>
+                  <c:v>88.713134765625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.39186096191406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.51803588867188</c:v>
+                  <c:v>97.51802062988281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.68893051147461</c:v>
+                  <c:v>54.68891906738281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.46408843994141</c:v>
+                  <c:v>38.46409225463867</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>52.60139846801758</c:v>
@@ -5447,7 +5447,7 @@
                   <c:v>97.2335205078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.93103790283203</c:v>
+                  <c:v>48.93104553222656</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.37762451171875</c:v>
@@ -5456,10 +5456,10 @@
                   <c:v>90.93083190917969</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77.58097839355469</c:v>
+                  <c:v>77.58099365234375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.04935073852539</c:v>
+                  <c:v>39.04935455322266</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>71.75928497314453</c:v>
@@ -5468,34 +5468,34 @@
                   <c:v>73.15182495117188</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.48977088928223</c:v>
+                  <c:v>28.48977279663086</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.67855834960938</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80.48101806640625</c:v>
+                  <c:v>80.48103332519531</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.76729583740234</c:v>
+                  <c:v>54.76728820800781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.75283050537109</c:v>
+                  <c:v>63.75283432006836</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>54.80809020996094</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.53428649902344</c:v>
+                  <c:v>90.53427124023438</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.91302490234375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.91767883300781</c:v>
+                  <c:v>95.91769409179688</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.64033508300781</c:v>
+                  <c:v>88.64035034179688</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.25848388671875</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>80.81727600097656</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.35011291503906</c:v>
+                  <c:v>97.35009765625</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>84.33256530761719</c:v>
@@ -5528,10 +5528,10 @@
                   <c:v>89.76718139648438</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.69087219238281</c:v>
+                  <c:v>96.69088745117188</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.00339126586914</c:v>
+                  <c:v>59.00338363647461</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.00822448730469</c:v>
@@ -5540,7 +5540,7 @@
                   <c:v>37.31035614013672</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.97604370117188</c:v>
+                  <c:v>87.97605895996094</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86.02449035644531</c:v>
@@ -5552,16 +5552,16 @@
                   <c:v>91.17375183105469</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.54141235351562</c:v>
+                  <c:v>96.54142761230469</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.93888854980469</c:v>
+                  <c:v>82.93890380859375</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.16880798339844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.46519470214844</c:v>
+                  <c:v>97.4652099609375</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.42375183105469</c:v>
@@ -5573,13 +5573,13 @@
                   <c:v>97.55088806152344</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.47610473632812</c:v>
+                  <c:v>74.47609710693359</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>90.103271484375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57.91410446166992</c:v>
+                  <c:v>57.91409683227539</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>95.89541625976562</c:v>
@@ -5594,13 +5594,13 @@
                   <c:v>97.42506408691406</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.79135894775391</c:v>
+                  <c:v>46.79135513305664</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.42385864257812</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>98.2772216796875</c:v>
+                  <c:v>98.27723693847656</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>96.67710876464844</c:v>
@@ -5633,13 +5633,13 @@
                   <c:v>81.53224182128906</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.55612182617188</c:v>
+                  <c:v>96.55610656738281</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>97.58515930175781</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.89411544799805</c:v>
+                  <c:v>27.89411735534668</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>65.414306640625</c:v>
@@ -5669,7 +5669,7 @@
                   <c:v>83.69371032714844</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.65398406982422</c:v>
+                  <c:v>60.65398025512695</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>91.15129089355469</c:v>
@@ -6379,7 +6379,7 @@
         <v>88.3473</v>
       </c>
       <c r="F2">
-        <v>88.71315002441406</v>
+        <v>88.713134765625</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>97.51803588867188</v>
+        <v>97.51802062988281</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>54.68893051147461</v>
+        <v>54.68891906738281</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>38.46408843994141</v>
+        <v>38.46409225463867</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>48.93103790283203</v>
+        <v>48.93104553222656</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>77.58097839355469</v>
+        <v>77.58099365234375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>39.04935073852539</v>
+        <v>39.04935455322266</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>28.48977088928223</v>
+        <v>28.48977279663086</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>80.48101806640625</v>
+        <v>80.48103332519531</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>54.76729583740234</v>
+        <v>54.76728820800781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.75283050537109</v>
+        <v>63.75283432006836</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.53428649902344</v>
+        <v>90.53427124023438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>95.91767883300781</v>
+        <v>95.91769409179688</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>88.64033508300781</v>
+        <v>88.64035034179688</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.35011291503906</v>
+        <v>97.35009765625</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.69087219238281</v>
+        <v>96.69088745117188</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.00339126586914</v>
+        <v>59.00338363647461</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>87.97604370117188</v>
+        <v>87.97605895996094</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>96.54141235351562</v>
+        <v>96.54142761230469</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>82.93888854980469</v>
+        <v>82.93890380859375</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.46519470214844</v>
+        <v>97.4652099609375</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>75.0586</v>
       </c>
       <c r="F54">
-        <v>74.47610473632812</v>
+        <v>74.47609710693359</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>57.91410446166992</v>
+        <v>57.91409683227539</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>46.79135894775391</v>
+        <v>46.79135513305664</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>98.0121</v>
       </c>
       <c r="F63">
-        <v>98.2772216796875</v>
+        <v>98.27723693847656</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>86.4927</v>
       </c>
       <c r="F74">
-        <v>96.55612182617188</v>
+        <v>96.55610656738281</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.89411544799805</v>
+        <v>27.89411735534668</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>60.65398406982422</v>
+        <v>60.65398025512695</v>
       </c>
     </row>
     <row r="87" spans="1:6">
